--- a/datadescription.xlsx
+++ b/datadescription.xlsx
@@ -3,8 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Daily" sheetId="1" r:id="rId5"/>
-    <sheet state="visible" name="Hourly" sheetId="2" r:id="rId6"/>
+    <sheet state="visible" name="Source" sheetId="1" r:id="rId5"/>
+    <sheet state="visible" name="Daily" sheetId="2" r:id="rId6"/>
+    <sheet state="visible" name="Hourly" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+  <si>
+    <t xml:space="preserve">Descriptions for the relevant columns from the Fitabase data dictionary avaialble at this link:
+</t>
+  </si>
+  <si>
+    <t>https://www.fitabase.com/media/2126/fitabase-fitbit-data-dictionary-as-of-05162025.pdf</t>
+  </si>
   <si>
     <t>Data Header</t>
   </si>
@@ -156,12 +164,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <b/>
@@ -189,14 +206,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -212,6 +235,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -423,160 +450,191 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="2" max="2" width="85.38"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="28.88"/>
     <col customWidth="1" min="2" max="2" width="65.75"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
+      <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
+      <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
+      <c r="A16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
+      <c r="A17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
+      <c r="A19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -599,51 +657,51 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
+      <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>41</v>
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>43</v>
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
+      <c r="A5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>45</v>
+      <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
